--- a/PCB/LAWO_ESP32/BOM.xlsx
+++ b/PCB/LAWO_ESP32/BOM.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pechj/Documents/Arduino/ECHT-Einsatz/LAWO-Arduino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\11.72.7.147\pechj\Documents\Arduino\libraries\LAWO-FlipDot\PCB\LAWO_ESP32\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76333988-4506-4648-90F4-A2A18420F23A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="3000" windowWidth="28240" windowHeight="17560" xr2:uid="{7FC183C9-1774-3243-950B-C945CE15BCE5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21735" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="LAWO_ESP32" localSheetId="0">Tabelle1!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Tabelle1!$A$1:$E$45</definedName>
+    <definedName name="LAWO_ESP32" localSheetId="0">Tabelle1!$A$1:$E$45</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,9 +34,9 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{E42C98E6-475C-7D47-B06E-7726EF314B60}" name="LAWO_ESP32" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/pechj/Documents/Arduino/ECHT-Einsatz/LAWO-Arduino/PCB/LAWO_ESP32.csv" decimal="," thousands="." tab="0" comma="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="LAWO_ESP32" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr sourceFile="/Users/pechj/Documents/Arduino/libraries/LAWO-FlipDot/PCB/LAWO_ESP32/LAWO_ESP32.csv" decimal="," thousands="." tab="0" comma="1">
       <textFields count="5">
         <textField/>
         <textField/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="98">
   <si>
     <t>Reference</t>
   </si>
@@ -64,6 +64,9 @@
     <t xml:space="preserve"> Datasheet</t>
   </si>
   <si>
+    <t xml:space="preserve"> Feld4</t>
+  </si>
+  <si>
     <t>F1</t>
   </si>
   <si>
@@ -121,48 +124,6 @@
     <t>R12</t>
   </si>
   <si>
-    <t>JP1</t>
-  </si>
-  <si>
-    <t>B_A2</t>
-  </si>
-  <si>
-    <t>Jumper:SolderJumper-2_P1.3mm_Open_RoundedPad1.0x1.5mm</t>
-  </si>
-  <si>
-    <t>JP2</t>
-  </si>
-  <si>
-    <t>B_A1</t>
-  </si>
-  <si>
-    <t>JP3</t>
-  </si>
-  <si>
-    <t>B_A0</t>
-  </si>
-  <si>
-    <t>Jumper:SolderJumper-2_P1.3mm_Bridged2Bar_RoundedPad1.0x1.5mm</t>
-  </si>
-  <si>
-    <t>JP4</t>
-  </si>
-  <si>
-    <t>Y_A0</t>
-  </si>
-  <si>
-    <t>JP5</t>
-  </si>
-  <si>
-    <t>Y_A1</t>
-  </si>
-  <si>
-    <t>JP6</t>
-  </si>
-  <si>
-    <t>Y_A2</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
@@ -172,24 +133,6 @@
     <t>Diode_THT:D_DO-41_SOD81_P10.16mm_Horizontal</t>
   </si>
   <si>
-    <t>MH1</t>
-  </si>
-  <si>
-    <t>MountingHole</t>
-  </si>
-  <si>
-    <t>Connect:1pin</t>
-  </si>
-  <si>
-    <t>MH2</t>
-  </si>
-  <si>
-    <t>MH3</t>
-  </si>
-  <si>
-    <t>MH4</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
@@ -235,12 +178,12 @@
     <t>U1</t>
   </si>
   <si>
-    <t>L7805</t>
-  </si>
-  <si>
     <t>Package_SIP:SIP3_11.6x8.5mm</t>
   </si>
   <si>
+    <t>http://www.st.com/content/ccc/resource/technical/document/datasheet/41/4f/b3/b0/12/d4/47/88/CD00000444.pdf/files/CD00000444.pdf/jcr:content/translations/en.CD00000444.pdf</t>
+  </si>
+  <si>
     <t>U2</t>
   </si>
   <si>
@@ -343,16 +286,70 @@
     <t>BC547</t>
   </si>
   <si>
-    <t>Package_TO_SOT_THT:TO-92_Inline</t>
+    <t>Package_TO_SOT_THT:TO-92_HandSolder</t>
   </si>
   <si>
     <t>http://www.fairchildsemi.com/ds/BC/BC547.pdf</t>
+  </si>
+  <si>
+    <t>SW1</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Buttons_Switches_THT:SW_PUSH_6mm_h5mm</t>
+  </si>
+  <si>
+    <t>SW2</t>
+  </si>
+  <si>
+    <t>T2</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>LED1</t>
+  </si>
+  <si>
+    <t>LED_THT:LED_D3.0mm</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>LED2</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>4,7k</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>LC78_05-0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -402,7 +399,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="LAWO_ESP32" connectionId="1" xr16:uid="{4BC2E3C6-BADD-6141-9DAB-9ED3925D570A}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="LAWO_ESP32" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -701,22 +698,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CC390-0F4A-3C4A-9931-6B9DC2112C97}">
-  <dimension ref="A1:D45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="80.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="64.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="80.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -729,561 +727,580 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20">
+        <v>330</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21">
+        <v>330</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>240</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28">
+        <v>56</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>240</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>56</v>
       </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>41</v>
-      </c>
-      <c r="C23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" t="s">
-        <v>48</v>
-      </c>
-      <c r="D29" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="B41" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C41" t="s">
         <v>55</v>
       </c>
-      <c r="C30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>57</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B42" t="s">
         <v>58</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>59</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="B44" t="s">
         <v>60</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C44" t="s">
         <v>61</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D44" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>63</v>
       </c>
-      <c r="B33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
-      </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>76</v>
-      </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C40" t="s">
-        <v>80</v>
-      </c>
-      <c r="D40" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C41" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>87</v>
-      </c>
-      <c r="B42" t="s">
-        <v>88</v>
-      </c>
-      <c r="C42" t="s">
-        <v>89</v>
-      </c>
-      <c r="D42" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>91</v>
-      </c>
-      <c r="B44" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" t="s">
-        <v>93</v>
-      </c>
-      <c r="D44" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>95</v>
-      </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C45" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E45"/>
+  <sortState ref="A2:E55">
+    <sortCondition ref="A2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>